--- a/Project/Work/Условные обозначения1.xlsx
+++ b/Project/Work/Условные обозначения1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17301"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Документы\Клиенты\Геофизмаш\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yuden\Documents\GitHub\Contr_RUMB_Manual\Project\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,11 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr dataExtractLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Условное обозна-чение</t>
   </si>
@@ -239,13 +238,25 @@
   </si>
   <si>
     <t>Устройство, состоящее из беспроводных модемов для передачи информации по публичным сетям беспроводной связи, и модуля накопления и шифрования информации.</t>
+  </si>
+  <si>
+    <t>ГНУ</t>
+  </si>
+  <si>
+    <t>Горизонтальная насосная установка</t>
+  </si>
+  <si>
+    <t>Малоблочная кустовая насосная станция</t>
+  </si>
+  <si>
+    <t>МБКНС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,19 +269,24 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,19 +309,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,285 +666,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="3" max="4" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
